--- a/public/sheets/ex-absen.xlsx
+++ b/public/sheets/ex-absen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sistorha\public\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF14CB9-69A0-4C77-BBC8-44140C386003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD68EE-5A20-4DC1-983D-F2649356E516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0B4BF69C-506A-47AA-A0F2-93F915DE93F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0B4BF69C-506A-47AA-A0F2-93F915DE93F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>D111911008</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>D112011095</t>
+  </si>
+  <si>
+    <t>matkul_id</t>
+  </si>
+  <si>
+    <t>kelas_id</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>nim</t>
   </si>
 </sst>
 </file>
@@ -250,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,6 +276,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,14 +300,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -309,8 +322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2828925" cy="219075"/>
+          <a:off x="0" y="419100"/>
+          <a:ext cx="2609850" cy="485776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -335,6 +348,42 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>row[0]      | row[1]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   | row[2]    | row[3]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -739,29 +788,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B862BC77-2C16-4BE2-BB1F-3E2446B8B64E}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -901,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1012,8 +1064,8 @@
       <c r="C19" s="2">
         <v>8</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,21 +1079,21 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,7 +1107,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1195,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,7 +1345,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1321,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,6 +1527,20 @@
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>51</v>
       </c>
     </row>
